--- a/output/growth_curve_logistic.xlsx
+++ b/output/growth_curve_logistic.xlsx
@@ -405,12 +405,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>value_min</t>
+          <t>od_min</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>value_max</t>
+          <t>od_max</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">

--- a/output/growth_curve_logistic.xlsx
+++ b/output/growth_curve_logistic.xlsx
@@ -400,32 +400,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>od_max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>time_odmid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>growth_rate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>od_min</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>od_max</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>od_max_fitted</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>time_odmid</t>
+          <t>time_odmid_fitted</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>time_odmid_fitted</t>
+          <t>od_min_fitted</t>
         </is>
       </c>
     </row>
@@ -471,22 +471,22 @@
         </is>
       </c>
       <c r="I2">
-        <v>0.05345072971271399</v>
+        <v>0.2314000055193901</v>
       </c>
       <c r="J2">
-        <v>0.005</v>
+        <v>42.5</v>
       </c>
       <c r="K2">
-        <v>0.270033726661605</v>
+        <v>0.08429668915680358</v>
       </c>
       <c r="L2">
-        <v>5.718350081513743</v>
+        <v>0.242362704698626</v>
       </c>
       <c r="M2">
-        <v>42.5</v>
+        <v>43.30270092583289</v>
       </c>
       <c r="N2">
-        <v>8.1479255457891</v>
+        <v>0.006138061110799518</v>
       </c>
     </row>
     <row r="3">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="I3">
-        <v>0.05525342180031662</v>
+        <v>0.2438999935984612</v>
       </c>
       <c r="J3">
-        <v>0.005</v>
+        <v>41.5</v>
       </c>
       <c r="K3">
-        <v>0.2781560344359037</v>
+        <v>0.08779525094658765</v>
       </c>
       <c r="L3">
-        <v>6.58844451353608</v>
+        <v>0.2509868189852313</v>
       </c>
       <c r="M3">
-        <v>41.5</v>
+        <v>42.37824063826528</v>
       </c>
       <c r="N3">
-        <v>5.420401415610473</v>
+        <v>0.005934967519119469</v>
       </c>
     </row>
     <row r="4">
@@ -587,26 +587,26 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DHFR12_N_term</t>
+          <t>DHFR12_C_term</t>
         </is>
       </c>
       <c r="I4">
-        <v>0.06061546773635133</v>
+        <v>0.3057000264525414</v>
       </c>
       <c r="J4">
-        <v>0.005</v>
+        <v>39.33333333333334</v>
       </c>
       <c r="K4">
-        <v>0.3357943295928407</v>
+        <v>0.09474493256902256</v>
       </c>
       <c r="L4">
-        <v>6.701475473248125</v>
+        <v>0.3088770682114237</v>
       </c>
       <c r="M4">
-        <v>39.33333333333334</v>
+        <v>39.98123521499984</v>
       </c>
       <c r="N4">
-        <v>5.35038826358238</v>
+        <v>0.006838278491558576</v>
       </c>
     </row>
     <row r="5">
@@ -651,22 +651,22 @@
         </is>
       </c>
       <c r="I5">
-        <v>0.04967290465498116</v>
+        <v>0.2948000058531761</v>
       </c>
       <c r="J5">
-        <v>0.005</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="K5">
-        <v>0.3468056830779627</v>
+        <v>0.08346803101327224</v>
       </c>
       <c r="L5">
-        <v>7.924302616411052</v>
+        <v>0.3032485026494355</v>
       </c>
       <c r="M5">
-        <v>43.33333333333334</v>
+        <v>44.09156585299334</v>
       </c>
       <c r="N5">
-        <v>-0.1254204715445016</v>
+        <v>0.00745893101832369</v>
       </c>
     </row>
     <row r="6">
@@ -707,26 +707,26 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DHFR12_N_term</t>
+          <t>DHFR12_C_term</t>
         </is>
       </c>
       <c r="I6">
-        <v>0.05634209557293106</v>
+        <v>0.2440000101923943</v>
       </c>
       <c r="J6">
-        <v>0.005</v>
+        <v>41.83333333333334</v>
       </c>
       <c r="K6">
-        <v>0.2744637567551299</v>
+        <v>0.08203520789648881</v>
       </c>
       <c r="L6">
-        <v>3.710411246974532</v>
+        <v>0.2525059865775354</v>
       </c>
       <c r="M6">
-        <v>41.83333333333334</v>
+        <v>41.95155805801283</v>
       </c>
       <c r="N6">
-        <v>16.36356370247318</v>
+        <v>0.00783354805580529</v>
       </c>
     </row>
     <row r="7">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="I7">
-        <v>0.05279047333327406</v>
+        <v>0.2481000050902367</v>
       </c>
       <c r="J7">
-        <v>0.005</v>
+        <v>41.83333333333334</v>
       </c>
       <c r="K7">
-        <v>0.2876803127844514</v>
+        <v>0.08039687907539088</v>
       </c>
       <c r="L7">
-        <v>4.477967138587427</v>
+        <v>0.2601818858339651</v>
       </c>
       <c r="M7">
-        <v>41.83333333333334</v>
+        <v>42.64766218590493</v>
       </c>
       <c r="N7">
-        <v>11.86878693270129</v>
+        <v>0.008172124269005333</v>
       </c>
     </row>
     <row r="8">
@@ -827,26 +827,26 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DHFR12_N_term</t>
+          <t>DHFR12_C_term</t>
         </is>
       </c>
       <c r="I8">
-        <v>0.05677206265344431</v>
+        <v>0.2122999951243401</v>
       </c>
       <c r="J8">
-        <v>0.005</v>
+        <v>42.5</v>
       </c>
       <c r="K8">
-        <v>0.2398135507284517</v>
+        <v>0.08731056186611205</v>
       </c>
       <c r="L8">
-        <v>5.894211655522705</v>
+        <v>0.2181168402396032</v>
       </c>
       <c r="M8">
-        <v>42.5</v>
+        <v>43.29141753791581</v>
       </c>
       <c r="N8">
-        <v>9.31932402723414</v>
+        <v>0.004867898072397451</v>
       </c>
     </row>
     <row r="9">
@@ -891,22 +891,22 @@
         </is>
       </c>
       <c r="I9">
-        <v>0.05502038375211615</v>
+        <v>0.2428000047802925</v>
       </c>
       <c r="J9">
-        <v>0.005</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.2819833692795918</v>
+        <v>0.08843405758646185</v>
       </c>
       <c r="L9">
-        <v>6.337469226305815</v>
+        <v>0.2515214576625442</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>44.79320296552762</v>
       </c>
       <c r="N9">
-        <v>8.764541280035878</v>
+        <v>0.004699345265985037</v>
       </c>
     </row>
     <row r="10">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="I10">
-        <v>0.05068985552660676</v>
+        <v>0.216200016438961</v>
       </c>
       <c r="J10">
-        <v>0.005</v>
+        <v>41.5</v>
       </c>
       <c r="K10">
-        <v>0.2498462706360301</v>
+        <v>0.07971778406378738</v>
       </c>
       <c r="L10">
-        <v>5.850656875185325</v>
+        <v>0.2239737369015278</v>
       </c>
       <c r="M10">
-        <v>41.5</v>
+        <v>42.61612381768663</v>
       </c>
       <c r="N10">
-        <v>5.163125092026571</v>
+        <v>0.007252519031800401</v>
       </c>
     </row>
     <row r="11">
@@ -1011,22 +1011,22 @@
         </is>
       </c>
       <c r="I11">
-        <v>0.06110067257704785</v>
+        <v>0.2252500131726265</v>
       </c>
       <c r="J11">
-        <v>0.005</v>
+        <v>38.83333333333334</v>
       </c>
       <c r="K11">
-        <v>0.2490475024346566</v>
+        <v>0.05305887668019377</v>
       </c>
       <c r="L11">
-        <v>0.8444423040412032</v>
+        <v>0.2590736442357641</v>
       </c>
       <c r="M11">
-        <v>38.83333333333334</v>
+        <v>39.30345854382536</v>
       </c>
       <c r="N11">
-        <v>42.6118036047937</v>
+        <v>0.02863391845002404</v>
       </c>
     </row>
     <row r="12">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="I12">
-        <v>0.05991231073900235</v>
+        <v>0.2023000046610832</v>
       </c>
       <c r="J12">
-        <v>0.005</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.2229819023099422</v>
+        <v>0.0902711172338979</v>
       </c>
       <c r="L12">
-        <v>5.317784661627262</v>
+        <v>0.2043558546832514</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>41.64449042205901</v>
       </c>
       <c r="N12">
-        <v>11.15925651832728</v>
+        <v>0.004653107699496583</v>
       </c>
     </row>
     <row r="13">
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="I13">
-        <v>0.05050620842219843</v>
+        <v>0.2542000040411949</v>
       </c>
       <c r="J13">
-        <v>0.005</v>
+        <v>42.5</v>
       </c>
       <c r="K13">
-        <v>0.298651113064886</v>
+        <v>0.08050109382363266</v>
       </c>
       <c r="L13">
-        <v>5.661254586934923</v>
+        <v>0.2655849792387409</v>
       </c>
       <c r="M13">
-        <v>42.5</v>
+        <v>43.41841742861712</v>
       </c>
       <c r="N13">
-        <v>6.663354298184233</v>
+        <v>0.007821013954439762</v>
       </c>
     </row>
     <row r="14">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="I14">
-        <v>0.4668173045128626</v>
+        <v>0.794000007212162</v>
       </c>
       <c r="J14">
-        <v>0.005</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="K14">
-        <v>0.7817089545113626</v>
+        <v>0.2481112769399514</v>
       </c>
       <c r="L14">
-        <v>0.3214872133202311</v>
+        <v>0.7934091775395556</v>
       </c>
       <c r="M14">
-        <v>32.33333333333334</v>
+        <v>31.67906901421689</v>
       </c>
       <c r="N14">
-        <v>36.60757492743149</v>
+        <v>0.0003060578891126791</v>
       </c>
     </row>
     <row r="15">
@@ -1251,22 +1251,22 @@
         </is>
       </c>
       <c r="I15">
-        <v>0.3873831808406603</v>
+        <v>0.9047999605536461</v>
       </c>
       <c r="J15">
-        <v>0.005</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.8874283985678748</v>
+        <v>0.2858884277898578</v>
       </c>
       <c r="L15">
-        <v>0.5545601445295543</v>
+        <v>0.9034478933211558</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>24.83128475459046</v>
       </c>
       <c r="N15">
-        <v>27.34198668320341</v>
+        <v>0.0007455864934999594</v>
       </c>
     </row>
     <row r="16">
@@ -1311,22 +1311,22 @@
         </is>
       </c>
       <c r="I16">
-        <v>0.05035667364212925</v>
+        <v>0.2993999943137169</v>
       </c>
       <c r="J16">
-        <v>0.005</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.3592723483216672</v>
+        <v>0.08179069531886057</v>
       </c>
       <c r="L16">
-        <v>5.683454333275131</v>
+        <v>0.3163426785133406</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>44.3122310035392</v>
       </c>
       <c r="N16">
-        <v>7.564450343586371</v>
+        <v>0.008216794975266549</v>
       </c>
     </row>
     <row r="17">
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="I17">
-        <v>0.6208139888142102</v>
+        <v>0.7699000015854836</v>
       </c>
       <c r="J17">
-        <v>0.005</v>
+        <v>34.83333333333334</v>
       </c>
       <c r="K17">
-        <v>0.7539094952350452</v>
+        <v>0.2375887030036193</v>
       </c>
       <c r="L17">
-        <v>0.2168307677960454</v>
+        <v>0.774195535320528</v>
       </c>
       <c r="M17">
-        <v>34.83333333333334</v>
+        <v>34.2202773929973</v>
       </c>
       <c r="N17">
-        <v>39.98441944906673</v>
+        <v>0.0002279061694315666</v>
       </c>
     </row>
     <row r="18">
@@ -1431,22 +1431,22 @@
         </is>
       </c>
       <c r="I18">
-        <v>0.1276856075656226</v>
+        <v>0.4573999866843224</v>
       </c>
       <c r="J18">
-        <v>0.005</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="K18">
-        <v>0.4891127406351702</v>
+        <v>0.08712040368043748</v>
       </c>
       <c r="L18">
-        <v>0.581680332284481</v>
+        <v>0.5352295700690169</v>
       </c>
       <c r="M18">
-        <v>48.66666666666666</v>
+        <v>51.2701805164723</v>
       </c>
       <c r="N18">
-        <v>56.24054083596678</v>
+        <v>0.006077521672810911</v>
       </c>
     </row>
     <row r="19">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="I19">
-        <v>0.5440718163864485</v>
+        <v>0.6900999769568443</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6794846078646345</v>
+        <v>0.2317724381205229</v>
       </c>
       <c r="L19">
-        <v>0.2441004402986893</v>
+        <v>0.6906268928210361</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>37.22081947137514</v>
       </c>
       <c r="N19">
-        <v>43.09354945985762</v>
+        <v>0.0001237688481724498</v>
       </c>
     </row>
     <row r="20">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="I20">
-        <v>0.02848145127389349</v>
+        <v>0.4286999925971031</v>
       </c>
       <c r="J20">
-        <v>0.005</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="K20">
-        <v>1.220438019124351</v>
+        <v>0.06240808427785675</v>
       </c>
       <c r="L20">
-        <v>5.166057614930796</v>
+        <v>0.6913310137098191</v>
       </c>
       <c r="M20">
-        <v>53.33333333333334</v>
+        <v>65.910259567973</v>
       </c>
       <c r="N20">
-        <v>21.32670040503586</v>
+        <v>0.0111235536002933</v>
       </c>
     </row>
     <row r="21">
@@ -1611,22 +1611,22 @@
         </is>
       </c>
       <c r="I21">
-        <v>0.5465711033892467</v>
+        <v>0.9255000576376915</v>
       </c>
       <c r="J21">
-        <v>0.005</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <v>0.9054961502061765</v>
+        <v>0.2971022578619502</v>
       </c>
       <c r="L21">
-        <v>0.3367988894067874</v>
+        <v>0.9231485442617722</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>22.59059280487269</v>
       </c>
       <c r="N21">
-        <v>26.49362414015787</v>
+        <v>0.001121714360513214</v>
       </c>
     </row>
     <row r="22">
@@ -1671,22 +1671,22 @@
         </is>
       </c>
       <c r="I22">
-        <v>0.03674005893887797</v>
+        <v>0.4009000286459923</v>
       </c>
       <c r="J22">
-        <v>0.005</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.837656719815661</v>
+        <v>0.06782033957244728</v>
       </c>
       <c r="L22">
-        <v>3.667914277690572</v>
+        <v>0.5825586476435749</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>62.16213557750066</v>
       </c>
       <c r="N22">
-        <v>32.84685127635653</v>
+        <v>0.008473307414445328</v>
       </c>
     </row>
     <row r="23">
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="I23">
-        <v>0.03667774869816713</v>
+        <v>0.4159000143408775</v>
       </c>
       <c r="J23">
-        <v>0.005</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="K23">
-        <v>0.8656191321452479</v>
+        <v>0.0700033454827029</v>
       </c>
       <c r="L23">
-        <v>4.207470244722909</v>
+        <v>0.5910150876122872</v>
       </c>
       <c r="M23">
-        <v>55.33333333333334</v>
+        <v>63.66009562801941</v>
       </c>
       <c r="N23">
-        <v>30.49963995423927</v>
+        <v>0.006779374573515553</v>
       </c>
     </row>
     <row r="24">
@@ -1791,22 +1791,22 @@
         </is>
       </c>
       <c r="I24">
-        <v>0.460657881296383</v>
+        <v>0.6442500054836273</v>
       </c>
       <c r="J24">
-        <v>0.005</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="K24">
-        <v>0.6336596821051749</v>
+        <v>0.2019848132196354</v>
       </c>
       <c r="L24">
-        <v>0.2530749126051276</v>
+        <v>0.6460574191603983</v>
       </c>
       <c r="M24">
-        <v>37.33333333333334</v>
+        <v>36.48627903856011</v>
       </c>
       <c r="N24">
-        <v>43.08653512822781</v>
+        <v>0.0004068072684140519</v>
       </c>
     </row>
     <row r="25">
@@ -1851,22 +1851,22 @@
         </is>
       </c>
       <c r="I25">
-        <v>0.04489406742260702</v>
+        <v>0.3236500173807144</v>
       </c>
       <c r="J25">
-        <v>0.005</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="K25">
-        <v>0.4273042554586286</v>
+        <v>0.07354214051807074</v>
       </c>
       <c r="L25">
-        <v>4.277864075971559</v>
+        <v>0.3621467093293655</v>
       </c>
       <c r="M25">
-        <v>45.66666666666666</v>
+        <v>48.41914179933148</v>
       </c>
       <c r="N25">
-        <v>15.34644459072785</v>
+        <v>0.01000598633096757</v>
       </c>
     </row>
     <row r="26">
@@ -1911,22 +1911,22 @@
         </is>
       </c>
       <c r="I26">
-        <v>0.03898119327639623</v>
+        <v>0.3775999918580055</v>
       </c>
       <c r="J26">
-        <v>0.005</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="K26">
-        <v>0.5543147428754863</v>
+        <v>0.07325995082989363</v>
       </c>
       <c r="L26">
-        <v>7.428579856673811</v>
+        <v>0.4320772516457281</v>
       </c>
       <c r="M26">
-        <v>48.66666666666666</v>
+        <v>51.87715766115859</v>
       </c>
       <c r="N26">
-        <v>0.9991611147036197</v>
+        <v>0.009449610196979031</v>
       </c>
     </row>
     <row r="27">
@@ -1971,22 +1971,22 @@
         </is>
       </c>
       <c r="I27">
-        <v>0.03830891374992463</v>
+        <v>0.4511000141501427</v>
       </c>
       <c r="J27">
-        <v>0.005</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="K27">
-        <v>0.8232136589274841</v>
+        <v>0.07512738559073338</v>
       </c>
       <c r="L27">
-        <v>5.824974323460917</v>
+        <v>0.5843148047751636</v>
       </c>
       <c r="M27">
-        <v>54.16666666666666</v>
+        <v>60.29755367068949</v>
       </c>
       <c r="N27">
-        <v>18.03106618374548</v>
+        <v>0.006232137159341307</v>
       </c>
     </row>
     <row r="28">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="I28">
-        <v>0.1029650537151003</v>
+        <v>0.635700024664402</v>
       </c>
       <c r="J28">
-        <v>0.005</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="K28">
-        <v>0.7306608087018114</v>
+        <v>0.09299777209093694</v>
       </c>
       <c r="L28">
-        <v>0.8813108982616259</v>
+        <v>0.7536605066062312</v>
       </c>
       <c r="M28">
-        <v>50.66666666666666</v>
+        <v>53.97506586868168</v>
       </c>
       <c r="N28">
-        <v>55.20848481605231</v>
+        <v>0.004947069799846464</v>
       </c>
     </row>
     <row r="29">
@@ -2091,22 +2091,22 @@
         </is>
       </c>
       <c r="I29">
-        <v>0.03799214591997513</v>
+        <v>0.3803000077605247</v>
       </c>
       <c r="J29">
-        <v>0.005</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="K29">
-        <v>0.5538171991520092</v>
+        <v>0.06334467844101821</v>
       </c>
       <c r="L29">
-        <v>3.811980093373437</v>
+        <v>0.4511975962526279</v>
       </c>
       <c r="M29">
-        <v>45.83333333333334</v>
+        <v>50.35367888157822</v>
       </c>
       <c r="N29">
-        <v>15.98542192656742</v>
+        <v>0.01784826964001715</v>
       </c>
     </row>
     <row r="30">
@@ -2151,22 +2151,22 @@
         </is>
       </c>
       <c r="I30">
-        <v>0.03695225031431875</v>
+        <v>0.4601000174880028</v>
       </c>
       <c r="J30">
-        <v>0.005</v>
+        <v>52.5</v>
       </c>
       <c r="K30">
-        <v>0.7995391349490382</v>
+        <v>0.07133368306003775</v>
       </c>
       <c r="L30">
-        <v>5.526330353021359</v>
+        <v>0.5773297873564363</v>
       </c>
       <c r="M30">
-        <v>52.5</v>
+        <v>57.85723146031824</v>
       </c>
       <c r="N30">
-        <v>15.12730314919128</v>
+        <v>0.009163648995768908</v>
       </c>
     </row>
     <row r="31">
@@ -2211,22 +2211,22 @@
         </is>
       </c>
       <c r="I31">
-        <v>0.04969599477589752</v>
+        <v>0.3044000044465065</v>
       </c>
       <c r="J31">
-        <v>0.005</v>
+        <v>43.5</v>
       </c>
       <c r="K31">
-        <v>0.3729858614266974</v>
+        <v>0.08092256330464796</v>
       </c>
       <c r="L31">
-        <v>5.527510215923026</v>
+        <v>0.3260584358180293</v>
       </c>
       <c r="M31">
-        <v>43.5</v>
+        <v>45.85598261064151</v>
       </c>
       <c r="N31">
-        <v>9.43278224151573</v>
+        <v>0.007784456022907421</v>
       </c>
     </row>
     <row r="32">
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="I32">
-        <v>0.02958158552138275</v>
+        <v>0.3675000295042992</v>
       </c>
       <c r="J32">
-        <v>0.005</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="K32">
-        <v>0.6686488005237683</v>
+        <v>0.05722163452291509</v>
       </c>
       <c r="L32">
-        <v>5.559750459215819</v>
+        <v>0.4756117644515225</v>
       </c>
       <c r="M32">
-        <v>48.66666666666666</v>
+        <v>56.10892361833994</v>
       </c>
       <c r="N32">
-        <v>3.134031378811496</v>
+        <v>0.018438097017935</v>
       </c>
     </row>
     <row r="33">
@@ -2331,22 +2331,22 @@
         </is>
       </c>
       <c r="I33">
-        <v>0.02648159407608426</v>
+        <v>0.5073999986052513</v>
       </c>
       <c r="J33">
-        <v>0.005</v>
+        <v>52.83333333333334</v>
       </c>
       <c r="K33">
-        <v>1.409745055317717</v>
+        <v>0.05788075844364875</v>
       </c>
       <c r="L33">
-        <v>5.005239963552571</v>
+        <v>0.7939209600175817</v>
       </c>
       <c r="M33">
-        <v>52.83333333333334</v>
+        <v>65.79077143007579</v>
       </c>
       <c r="N33">
-        <v>19.31411501386905</v>
+        <v>0.01723625027425677</v>
       </c>
     </row>
     <row r="34">
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="I34">
-        <v>0.05892910881499006</v>
+        <v>0.3399999961256981</v>
       </c>
       <c r="J34">
-        <v>0.005</v>
+        <v>41.83333333333334</v>
       </c>
       <c r="K34">
-        <v>0.386010605181135</v>
+        <v>0.08821557604153228</v>
       </c>
       <c r="L34">
-        <v>3.993133726971843</v>
+        <v>0.35313612456388</v>
       </c>
       <c r="M34">
-        <v>41.83333333333334</v>
+        <v>43.10070437751872</v>
       </c>
       <c r="N34">
-        <v>17.20540437524496</v>
+        <v>0.0077108081047239</v>
       </c>
     </row>
     <row r="35">
@@ -2451,22 +2451,22 @@
         </is>
       </c>
       <c r="I35">
-        <v>0.05129427821301753</v>
+        <v>0.3633000031113625</v>
       </c>
       <c r="J35">
-        <v>0.005</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="K35">
-        <v>0.4377835011609946</v>
+        <v>0.08769658298474499</v>
       </c>
       <c r="L35">
-        <v>8.512786539070223</v>
+        <v>0.3785225984463687</v>
       </c>
       <c r="M35">
-        <v>45.83333333333334</v>
+        <v>47.18094632050251</v>
       </c>
       <c r="N35">
-        <v>3.09260920866542</v>
+        <v>0.00594667982460639</v>
       </c>
     </row>
     <row r="36">
@@ -2511,22 +2511,22 @@
         </is>
       </c>
       <c r="I36">
-        <v>0.04003006159471328</v>
+        <v>0.3678500205278397</v>
       </c>
       <c r="J36">
-        <v>0.005</v>
+        <v>47.5</v>
       </c>
       <c r="K36">
-        <v>0.5252022802434499</v>
+        <v>0.07227351896832054</v>
       </c>
       <c r="L36">
-        <v>6.052107377469214</v>
+        <v>0.4188794006335598</v>
       </c>
       <c r="M36">
-        <v>47.5</v>
+        <v>50.82705172727656</v>
       </c>
       <c r="N36">
-        <v>6.132429909011924</v>
+        <v>0.01037149704438443</v>
       </c>
     </row>
     <row r="37">
@@ -2571,22 +2571,22 @@
         </is>
       </c>
       <c r="I37">
-        <v>0.03270353385072498</v>
+        <v>0.5510000213980675</v>
       </c>
       <c r="J37">
-        <v>0.005</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>1.186646772256079</v>
+        <v>0.07020507308270675</v>
       </c>
       <c r="L37">
-        <v>6.387376145347131</v>
+        <v>0.7527369463809729</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>61.13683555118497</v>
       </c>
       <c r="N37">
-        <v>11.98721456128142</v>
+        <v>0.01015551120258828</v>
       </c>
     </row>
     <row r="38">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="I38">
-        <v>0.0740253007060335</v>
+        <v>0.2383000031113625</v>
       </c>
       <c r="J38">
-        <v>0.005</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="K38">
-        <v>0.2570663570714517</v>
+        <v>0.1124534840327144</v>
       </c>
       <c r="L38">
-        <v>5.842552144993502</v>
+        <v>0.235341799148242</v>
       </c>
       <c r="M38">
-        <v>48.33333333333334</v>
+        <v>47.76879743233105</v>
       </c>
       <c r="N38">
-        <v>21.64931236610877</v>
+        <v>0.001088320922029401</v>
       </c>
     </row>
     <row r="39">
@@ -2691,22 +2691,22 @@
         </is>
       </c>
       <c r="I39">
-        <v>0.04999571650409869</v>
+        <v>0.2982000336050987</v>
       </c>
       <c r="J39">
-        <v>0.005</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>0.3681455391395552</v>
+        <v>0.08251211140737974</v>
       </c>
       <c r="L39">
-        <v>5.702727481305049</v>
+        <v>0.3195544914671925</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>46.50869647013018</v>
       </c>
       <c r="N39">
-        <v>9.845442566396146</v>
+        <v>0.006740129756592352</v>
       </c>
     </row>
     <row r="40">
@@ -2751,22 +2751,22 @@
         </is>
       </c>
       <c r="I40">
-        <v>0.04026128640311639</v>
+        <v>0.4096999987959862</v>
       </c>
       <c r="J40">
-        <v>0.005</v>
+        <v>51.16666666666666</v>
       </c>
       <c r="K40">
-        <v>0.6380843087517205</v>
+        <v>0.07400886446262685</v>
       </c>
       <c r="L40">
-        <v>5.688829831940074</v>
+        <v>0.4921627158035994</v>
       </c>
       <c r="M40">
-        <v>51.16666666666666</v>
+        <v>55.55735979006514</v>
       </c>
       <c r="N40">
-        <v>13.70983720922537</v>
+        <v>0.007931369116018142</v>
       </c>
     </row>
     <row r="41">
@@ -2811,22 +2811,22 @@
         </is>
       </c>
       <c r="I41">
-        <v>0.04179968214441905</v>
+        <v>0.4265499860048294</v>
       </c>
       <c r="J41">
-        <v>0.005</v>
+        <v>47.5</v>
       </c>
       <c r="K41">
-        <v>0.6033612325096833</v>
+        <v>0.06993858042126297</v>
       </c>
       <c r="L41">
-        <v>3.928995971375829</v>
+        <v>0.4951868050407144</v>
       </c>
       <c r="M41">
-        <v>47.5</v>
+        <v>50.77390347951835</v>
       </c>
       <c r="N41">
-        <v>18.45117699543783</v>
+        <v>0.01381272070972266</v>
       </c>
     </row>
     <row r="42">
@@ -2871,22 +2871,22 @@
         </is>
       </c>
       <c r="I42">
-        <v>0.05292082703812959</v>
+        <v>0.5579999908804893</v>
       </c>
       <c r="J42">
-        <v>0.005</v>
+        <v>51.5</v>
       </c>
       <c r="K42">
-        <v>0.8308882235344808</v>
+        <v>0.07855955876777286</v>
       </c>
       <c r="L42">
-        <v>2.339923221714335</v>
+        <v>0.7043842736506498</v>
       </c>
       <c r="M42">
-        <v>51.5</v>
+        <v>56.6454532980471</v>
       </c>
       <c r="N42">
-        <v>41.57826133706104</v>
+        <v>0.008130901614269286</v>
       </c>
     </row>
     <row r="43">
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="I43">
-        <v>0.05560166715722707</v>
+        <v>0.272999994456768</v>
       </c>
       <c r="J43">
-        <v>0.005</v>
+        <v>43.66666666666666</v>
       </c>
       <c r="K43">
-        <v>0.3216644019042446</v>
+        <v>0.08670750405361367</v>
       </c>
       <c r="L43">
-        <v>4.708367704840715</v>
+        <v>0.2880767315415773</v>
       </c>
       <c r="M43">
-        <v>43.66666666666666</v>
+        <v>45.19746299982947</v>
       </c>
       <c r="N43">
-        <v>15.19639720843168</v>
+        <v>0.00561027973868036</v>
       </c>
     </row>
     <row r="44">
@@ -2991,22 +2991,22 @@
         </is>
       </c>
       <c r="I44">
-        <v>0.1768903466616547</v>
+        <v>0.5755999907851219</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>0.5907856064591427</v>
+        <v>0.1031860629463451</v>
       </c>
       <c r="L44">
-        <v>0.4372658378595518</v>
+        <v>0.6388236666816081</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>48.11773937912791</v>
       </c>
       <c r="N44">
-        <v>55.10210353748618</v>
+        <v>0.004426438088234443</v>
       </c>
     </row>
     <row r="45">
@@ -3051,22 +3051,22 @@
         </is>
       </c>
       <c r="I45">
-        <v>0.04693968217336716</v>
+        <v>0.2992000207304955</v>
       </c>
       <c r="J45">
-        <v>0.005</v>
+        <v>41.83333333333334</v>
       </c>
       <c r="K45">
-        <v>0.3526260549580696</v>
+        <v>0.07690880172916362</v>
       </c>
       <c r="L45">
-        <v>6.449312882765097</v>
+        <v>0.3098397097200221</v>
       </c>
       <c r="M45">
-        <v>41.83333333333334</v>
+        <v>42.48439110737919</v>
       </c>
       <c r="N45">
-        <v>0.2406944670970364</v>
+        <v>0.01137291962957743</v>
       </c>
     </row>
     <row r="46">
@@ -3111,22 +3111,22 @@
         </is>
       </c>
       <c r="I46">
-        <v>0.057603977082703</v>
+        <v>0.3490000143647194</v>
       </c>
       <c r="J46">
-        <v>0.005</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>0.4066832043879654</v>
+        <v>0.08615021061861701</v>
       </c>
       <c r="L46">
-        <v>3.579152312898182</v>
+        <v>0.3693233657744123</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>44.27220643271935</v>
       </c>
       <c r="N46">
-        <v>20.11549008400638</v>
+        <v>0.007970872882369221</v>
       </c>
     </row>
     <row r="47">
@@ -3171,22 +3171,22 @@
         </is>
       </c>
       <c r="I47">
-        <v>0.05571661391586035</v>
+        <v>0.3088000044226646</v>
       </c>
       <c r="J47">
-        <v>0.005</v>
+        <v>45.16666666666666</v>
       </c>
       <c r="K47">
-        <v>0.3637888907793453</v>
+        <v>0.09059126624843304</v>
       </c>
       <c r="L47">
-        <v>6.438680630649705</v>
+        <v>0.3225681843761635</v>
       </c>
       <c r="M47">
-        <v>45.16666666666666</v>
+        <v>46.115300815665</v>
       </c>
       <c r="N47">
-        <v>10.27352178771704</v>
+        <v>0.004871748120030322</v>
       </c>
     </row>
     <row r="48">
@@ -3231,22 +3231,22 @@
         </is>
       </c>
       <c r="I48">
-        <v>0.0567467054025904</v>
+        <v>0.2778999879956245</v>
       </c>
       <c r="J48">
-        <v>0.005</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>0.3163264163768972</v>
+        <v>0.09125165703744412</v>
       </c>
       <c r="L48">
-        <v>7.395363372537912</v>
+        <v>0.2846164448882847</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>43.69812397259178</v>
       </c>
       <c r="N48">
-        <v>5.552084434811245</v>
+        <v>0.005182256509293975</v>
       </c>
     </row>
     <row r="49">
@@ -3291,22 +3291,22 @@
         </is>
       </c>
       <c r="I49">
-        <v>0.05126459333037966</v>
+        <v>0.3020000234246254</v>
       </c>
       <c r="J49">
-        <v>0.005</v>
+        <v>45.33333333333334</v>
       </c>
       <c r="K49">
-        <v>0.366538172196614</v>
+        <v>0.08487629984179854</v>
       </c>
       <c r="L49">
-        <v>6.49583154446224</v>
+        <v>0.3197818410316878</v>
       </c>
       <c r="M49">
-        <v>45.33333333333334</v>
+        <v>46.5234117240949</v>
       </c>
       <c r="N49">
-        <v>7.868694604248768</v>
+        <v>0.006048488381926434</v>
       </c>
     </row>
     <row r="50">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="I50">
-        <v>0.365469043162129</v>
+        <v>0.7053999677300453</v>
       </c>
       <c r="J50">
-        <v>0.005</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>0.6995042475312497</v>
+        <v>0.1474621134938692</v>
       </c>
       <c r="L50">
-        <v>0.2409555641127631</v>
+        <v>0.730239190479519</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>42.51989801034486</v>
       </c>
       <c r="N50">
-        <v>50.93974890588198</v>
+        <v>0.001379067866308316</v>
       </c>
     </row>
     <row r="51">
@@ -3411,22 +3411,22 @@
         </is>
       </c>
       <c r="I51">
-        <v>0.04314534562374624</v>
+        <v>0.542400024831295</v>
       </c>
       <c r="J51">
-        <v>0.005</v>
+        <v>52.16666666666666</v>
       </c>
       <c r="K51">
-        <v>0.9152724397018563</v>
+        <v>0.08059627854476242</v>
       </c>
       <c r="L51">
-        <v>4.940662339558507</v>
+        <v>0.6871967857637179</v>
       </c>
       <c r="M51">
-        <v>52.16666666666666</v>
+        <v>57.25117424837938</v>
       </c>
       <c r="N51">
-        <v>22.47686854852285</v>
+        <v>0.006743156180444367</v>
       </c>
     </row>
     <row r="52">
@@ -3471,22 +3471,22 @@
         </is>
       </c>
       <c r="I52">
-        <v>0.1468697941573288</v>
+        <v>0.602900005877018</v>
       </c>
       <c r="J52">
-        <v>0.005</v>
+        <v>49.83333333333334</v>
       </c>
       <c r="K52">
-        <v>0.6428157680549079</v>
+        <v>0.09525596738822632</v>
       </c>
       <c r="L52">
-        <v>0.5259983871839023</v>
+        <v>0.704688138329697</v>
       </c>
       <c r="M52">
-        <v>49.83333333333334</v>
+        <v>52.37979539410205</v>
       </c>
       <c r="N52">
-        <v>57.85538508540876</v>
+        <v>0.004765875207048248</v>
       </c>
     </row>
     <row r="53">
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="I53">
-        <v>0.09394162463949569</v>
+        <v>0.6043499857187271</v>
       </c>
       <c r="J53">
-        <v>0.005</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="K53">
-        <v>0.7037991494640671</v>
+        <v>0.07790513997739287</v>
       </c>
       <c r="L53">
-        <v>0.7816512061645777</v>
+        <v>0.7490903816367505</v>
       </c>
       <c r="M53">
-        <v>49.33333333333334</v>
+        <v>53.66304913821249</v>
       </c>
       <c r="N53">
-        <v>56.06696869264385</v>
+        <v>0.01128031392515549</v>
       </c>
     </row>
     <row r="54">
@@ -3591,22 +3591,22 @@
         </is>
       </c>
       <c r="I54">
-        <v>0.102748672429513</v>
+        <v>0.592849999666214</v>
       </c>
       <c r="J54">
-        <v>0.005</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="K54">
-        <v>0.6652909905032125</v>
+        <v>0.09181675527173727</v>
       </c>
       <c r="L54">
-        <v>0.8630716403597605</v>
+        <v>0.6853283960726746</v>
       </c>
       <c r="M54">
-        <v>48.66666666666666</v>
+        <v>51.04447094885394</v>
       </c>
       <c r="N54">
-        <v>52.64406085269294</v>
+        <v>0.006258784183801055</v>
       </c>
     </row>
     <row r="55">
@@ -3651,22 +3651,22 @@
         </is>
       </c>
       <c r="I55">
-        <v>0.3316776703590286</v>
+        <v>0.7486499920487404</v>
       </c>
       <c r="J55">
-        <v>0.005</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="K55">
-        <v>0.7468925775837535</v>
+        <v>0.1607485067628673</v>
       </c>
       <c r="L55">
-        <v>0.2982779128429295</v>
+        <v>0.7715287849483854</v>
       </c>
       <c r="M55">
-        <v>42.16666666666666</v>
+        <v>41.76152710370972</v>
       </c>
       <c r="N55">
-        <v>49.11998106817275</v>
+        <v>0.0009361839523490312</v>
       </c>
     </row>
     <row r="56">
@@ -3711,22 +3711,22 @@
         </is>
       </c>
       <c r="I56">
-        <v>0.3173075791115042</v>
+        <v>0.7107499837875366</v>
       </c>
       <c r="J56">
-        <v>0.005</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>0.7105191143670181</v>
+        <v>0.1075856812242889</v>
       </c>
       <c r="L56">
-        <v>0.2104790808238622</v>
+        <v>0.7775083726445594</v>
       </c>
       <c r="M56">
-        <v>45</v>
+        <v>45.1149142795058</v>
       </c>
       <c r="N56">
-        <v>55.30829628559763</v>
+        <v>0.006017106912294802</v>
       </c>
     </row>
     <row r="57">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="I57">
-        <v>0.0389158548718388</v>
+        <v>0.5097999796271324</v>
       </c>
       <c r="J57">
-        <v>0.005</v>
+        <v>47.33333333333334</v>
       </c>
       <c r="K57">
-        <v>0.714401486569522</v>
+        <v>0.07553539052390972</v>
       </c>
       <c r="L57">
-        <v>10.57228186248492</v>
+        <v>0.556830977950733</v>
       </c>
       <c r="M57">
-        <v>47.33333333333334</v>
+        <v>50.07624373732541</v>
       </c>
       <c r="N57">
-        <v>-10.58165149562883</v>
+        <v>0.01239413428769552</v>
       </c>
     </row>
     <row r="58">
@@ -3831,22 +3831,22 @@
         </is>
       </c>
       <c r="I58">
-        <v>0.4006293727661915</v>
+        <v>0.8095000013709068</v>
       </c>
       <c r="J58">
-        <v>0.005</v>
+        <v>38</v>
       </c>
       <c r="K58">
-        <v>0.8026174387215151</v>
+        <v>0.1922214036372651</v>
       </c>
       <c r="L58">
-        <v>0.2901417670299008</v>
+        <v>0.8250132212134117</v>
       </c>
       <c r="M58">
-        <v>38</v>
+        <v>37.39626802752379</v>
       </c>
       <c r="N58">
-        <v>43.74431922138681</v>
+        <v>0.000622682352069553</v>
       </c>
     </row>
     <row r="59">
@@ -3891,22 +3891,22 @@
         </is>
       </c>
       <c r="I59">
-        <v>0.3411903447655577</v>
+        <v>0.7971000447869301</v>
       </c>
       <c r="J59">
-        <v>0.005</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="K59">
-        <v>0.7888468789114864</v>
+        <v>0.1609358707394974</v>
       </c>
       <c r="L59">
-        <v>0.2874274793535476</v>
+        <v>0.8143748217131941</v>
       </c>
       <c r="M59">
-        <v>42.16666666666666</v>
+        <v>41.54290318422429</v>
       </c>
       <c r="N59">
-        <v>49.02998754079161</v>
+        <v>0.001015549275706571</v>
       </c>
     </row>
     <row r="60">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="I60">
-        <v>0.3633534114374881</v>
+        <v>0.7731999978423119</v>
       </c>
       <c r="J60">
-        <v>0.005</v>
+        <v>40.16666666666666</v>
       </c>
       <c r="K60">
-        <v>0.7677174592112423</v>
+        <v>0.1765396349403381</v>
       </c>
       <c r="L60">
-        <v>0.2941959047549066</v>
+        <v>0.7867158859646144</v>
       </c>
       <c r="M60">
-        <v>40.16666666666666</v>
+        <v>39.5367450584174</v>
       </c>
       <c r="N60">
-        <v>46.47698827291521</v>
+        <v>0.0007313483312954422</v>
       </c>
     </row>
     <row r="61">
@@ -4011,22 +4011,22 @@
         </is>
       </c>
       <c r="I61">
-        <v>0.09432631569439592</v>
+        <v>0.6045000180602074</v>
       </c>
       <c r="J61">
-        <v>0.005</v>
+        <v>53</v>
       </c>
       <c r="K61">
-        <v>0.7660739279940799</v>
+        <v>0.07447360880061651</v>
       </c>
       <c r="L61">
-        <v>0.753750652883414</v>
+        <v>0.8547849284047779</v>
       </c>
       <c r="M61">
-        <v>53</v>
+        <v>60.89320239250245</v>
       </c>
       <c r="N61">
-        <v>62.50605414102027</v>
+        <v>0.009072455020126451</v>
       </c>
     </row>
     <row r="62">
@@ -4071,22 +4071,22 @@
         </is>
       </c>
       <c r="I62">
-        <v>0.040262528721295</v>
+        <v>0.4675499945878983</v>
       </c>
       <c r="J62">
-        <v>0.005</v>
+        <v>52.5</v>
       </c>
       <c r="K62">
-        <v>0.7694624143326614</v>
+        <v>0.0765069353885308</v>
       </c>
       <c r="L62">
-        <v>5.74956830986278</v>
+        <v>0.5728361646910075</v>
       </c>
       <c r="M62">
-        <v>52.5</v>
+        <v>57.15529703147422</v>
       </c>
       <c r="N62">
-        <v>16.01344436718</v>
+        <v>0.007136952698139444</v>
       </c>
     </row>
     <row r="63">
@@ -4131,22 +4131,22 @@
         </is>
       </c>
       <c r="I63">
-        <v>0.0786491760056814</v>
+        <v>0.5829000100493431</v>
       </c>
       <c r="J63">
-        <v>0.005</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="K63">
-        <v>0.7121067561039323</v>
+        <v>0.0827617158978957</v>
       </c>
       <c r="L63">
-        <v>1.161192082818135</v>
+        <v>0.7040485780581194</v>
       </c>
       <c r="M63">
-        <v>48.66666666666666</v>
+        <v>52.77791907300395</v>
       </c>
       <c r="N63">
-        <v>50.62595006704993</v>
+        <v>0.008813275890133985</v>
       </c>
     </row>
     <row r="64">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="I64">
-        <v>0.05931133002460395</v>
+        <v>0.3390000090003014</v>
       </c>
       <c r="J64">
-        <v>0.005</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>0.3902659372102337</v>
+        <v>0.09528876526948751</v>
       </c>
       <c r="L64">
-        <v>6.876730193783243</v>
+        <v>0.351289927897744</v>
       </c>
       <c r="M64">
-        <v>44</v>
+        <v>44.89962401787334</v>
       </c>
       <c r="N64">
-        <v>9.600695163853059</v>
+        <v>0.004803827375906949</v>
       </c>
     </row>
     <row r="65">
@@ -4251,22 +4251,22 @@
         </is>
       </c>
       <c r="I65">
-        <v>0.4258089766323854</v>
+        <v>0.7606000080704689</v>
       </c>
       <c r="J65">
-        <v>0.005</v>
+        <v>38.83333333333334</v>
       </c>
       <c r="K65">
-        <v>0.7490111035685187</v>
+        <v>0.1858998996806812</v>
       </c>
       <c r="L65">
-        <v>0.2549186495820799</v>
+        <v>0.767759440721224</v>
       </c>
       <c r="M65">
-        <v>38.83333333333334</v>
+        <v>38.12710253074363</v>
       </c>
       <c r="N65">
-        <v>45.14122050706674</v>
+        <v>0.0006407070521218921</v>
       </c>
     </row>
     <row r="66">
@@ -4311,22 +4311,22 @@
         </is>
       </c>
       <c r="I66">
-        <v>0.06494592855988909</v>
+        <v>0.3873999938368797</v>
       </c>
       <c r="J66">
-        <v>0.005</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>0.4404012516069801</v>
+        <v>0.09659108427494138</v>
       </c>
       <c r="L66">
-        <v>3.824986565936801</v>
+        <v>0.4044482665303908</v>
       </c>
       <c r="M66">
-        <v>44</v>
+        <v>45.18413383416323</v>
       </c>
       <c r="N66">
-        <v>22.27147144544531</v>
+        <v>0.005080944256232392</v>
       </c>
     </row>
     <row r="67">
@@ -4371,22 +4371,22 @@
         </is>
       </c>
       <c r="I67">
-        <v>0.4594678470412282</v>
+        <v>0.8253000006079674</v>
       </c>
       <c r="J67">
-        <v>0.005</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="K67">
-        <v>0.8145426137159698</v>
+        <v>0.1901768670777068</v>
       </c>
       <c r="L67">
-        <v>0.2376804570439083</v>
+        <v>0.8349287737129705</v>
       </c>
       <c r="M67">
-        <v>37.33333333333334</v>
+        <v>36.59761293567678</v>
       </c>
       <c r="N67">
-        <v>43.64201109898833</v>
+        <v>0.0007916613409226245</v>
       </c>
     </row>
     <row r="68">
@@ -4431,22 +4431,22 @@
         </is>
       </c>
       <c r="I68">
-        <v>0.0736031257290302</v>
+        <v>0.3788000121712685</v>
       </c>
       <c r="J68">
-        <v>0.005</v>
+        <v>42.5</v>
       </c>
       <c r="K68">
-        <v>0.4117563394800745</v>
+        <v>0.09258586564750917</v>
       </c>
       <c r="L68">
-        <v>1.97380601271971</v>
+        <v>0.394230083618842</v>
       </c>
       <c r="M68">
-        <v>42.5</v>
+        <v>43.4026167949757</v>
       </c>
       <c r="N68">
-        <v>32.7284690511057</v>
+        <v>0.006963241663672</v>
       </c>
     </row>
     <row r="69">
@@ -4491,22 +4491,22 @@
         </is>
       </c>
       <c r="I69">
-        <v>0.06992858627799539</v>
+        <v>0.6243000254034996</v>
       </c>
       <c r="J69">
-        <v>0.005</v>
+        <v>51.16666666666666</v>
       </c>
       <c r="K69">
-        <v>0.8382837948623182</v>
+        <v>0.07340919248880101</v>
       </c>
       <c r="L69">
-        <v>1.145037524914886</v>
+        <v>0.8280233852292465</v>
       </c>
       <c r="M69">
-        <v>51.16666666666666</v>
+        <v>57.12151405341646</v>
       </c>
       <c r="N69">
-        <v>54.97302817238524</v>
+        <v>0.01231493531412997</v>
       </c>
     </row>
     <row r="70">
@@ -4551,22 +4551,22 @@
         </is>
       </c>
       <c r="I70">
-        <v>0.06876656560513021</v>
+        <v>0.4578999951481819</v>
       </c>
       <c r="J70">
-        <v>0.005</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="K70">
-        <v>0.6936670514761085</v>
+        <v>0.06445960825911357</v>
       </c>
       <c r="L70">
-        <v>0.9774933512876487</v>
+        <v>0.7310415664167624</v>
       </c>
       <c r="M70">
-        <v>53.33333333333334</v>
+        <v>64.85547696629249</v>
       </c>
       <c r="N70">
-        <v>63.86007321796521</v>
+        <v>0.01100926764975832</v>
       </c>
     </row>
     <row r="71">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="I71">
-        <v>0.04269938517470031</v>
+        <v>0.4483999982476234</v>
       </c>
       <c r="J71">
-        <v>0.005</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>0.6290749194256393</v>
+        <v>0.07855349591120797</v>
       </c>
       <c r="L71">
-        <v>7.38764481189539</v>
+        <v>0.5004320942798964</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>52.89986873971847</v>
       </c>
       <c r="N71">
-        <v>5.940580435206843</v>
+        <v>0.007724873918149534</v>
       </c>
     </row>
     <row r="72">
@@ -4671,22 +4671,22 @@
         </is>
       </c>
       <c r="I72">
-        <v>0.05114356811501418</v>
+        <v>0.3847999796271324</v>
       </c>
       <c r="J72">
-        <v>0.005</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="K72">
-        <v>0.4839620710221343</v>
+        <v>0.08879147724114497</v>
       </c>
       <c r="L72">
-        <v>7.829754638714808</v>
+        <v>0.4103596028652274</v>
       </c>
       <c r="M72">
-        <v>48.66666666666666</v>
+        <v>50.1934547120967</v>
       </c>
       <c r="N72">
-        <v>8.210701155763955</v>
+        <v>0.004705582817018176</v>
       </c>
     </row>
     <row r="73">
@@ -4731,22 +4731,22 @@
         </is>
       </c>
       <c r="I73">
-        <v>0.05585696768188068</v>
+        <v>0.3437999859452248</v>
       </c>
       <c r="J73">
-        <v>0.005</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="K73">
-        <v>0.409249281013015</v>
+        <v>0.09278795463963332</v>
       </c>
       <c r="L73">
-        <v>7.365712231751071</v>
+        <v>0.3604711956625647</v>
       </c>
       <c r="M73">
-        <v>45.66666666666666</v>
+        <v>46.67129605608454</v>
       </c>
       <c r="N73">
-        <v>8.467631687567525</v>
+        <v>0.004682364801121222</v>
       </c>
     </row>
     <row r="74">
@@ -4770,23 +4770,33 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I74">
-        <v>0.03130164925175068</v>
+        <v>0.5737999901175499</v>
       </c>
       <c r="J74">
-        <v>0.005</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="K74">
-        <v>1.595189328178141</v>
+        <v>0.06981945336184094</v>
       </c>
       <c r="L74">
-        <v>5.316728075654452</v>
+        <v>0.8878690106673774</v>
       </c>
       <c r="M74">
-        <v>56.66666666666666</v>
+        <v>66.71409396238556</v>
       </c>
       <c r="N74">
-        <v>25.54419120278069</v>
+        <v>0.008343154567824161</v>
       </c>
     </row>
     <row r="75">
@@ -4810,23 +4820,33 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I75">
-        <v>3.059946769013369</v>
+        <v>0.8601500019431114</v>
       </c>
       <c r="J75">
-        <v>0.005</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="K75">
-        <v>0.6903190549237319</v>
+        <v>0.4846013254728388</v>
       </c>
       <c r="L75">
-        <v>0.07721990081674085</v>
+        <v>0.7004136272528416</v>
       </c>
       <c r="M75">
-        <v>20.16666666666667</v>
+        <v>18.84892332593284</v>
       </c>
       <c r="N75">
-        <v>22.39486737964659</v>
+        <v>7.557346306857025E-05</v>
       </c>
     </row>
     <row r="76">
@@ -4850,23 +4870,33 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I76">
-        <v>0.4471229030178621</v>
+        <v>1.015599966049194</v>
       </c>
       <c r="J76">
-        <v>0.005</v>
+        <v>28</v>
       </c>
       <c r="K76">
-        <v>1.009087004222902</v>
+        <v>0.2940770591705903</v>
       </c>
       <c r="L76">
-        <v>0.4349836370151244</v>
+        <v>1.020140315432164</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>27.64751129373342</v>
       </c>
       <c r="N76">
-        <v>31.04629576061302</v>
+        <v>0.0003002626366992842</v>
       </c>
     </row>
     <row r="77">
@@ -4890,23 +4920,33 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I77">
-        <v>0.1369826079437703</v>
+        <v>0.4131000265479088</v>
       </c>
       <c r="J77">
-        <v>0.005</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="K77">
-        <v>0.427839834987606</v>
+        <v>0.09355630696265795</v>
       </c>
       <c r="L77">
-        <v>0.5585447003148736</v>
+        <v>0.4561995719779558</v>
       </c>
       <c r="M77">
-        <v>45.66666666666666</v>
+        <v>46.43095884156565</v>
       </c>
       <c r="N77">
-        <v>52.33828558951085</v>
+        <v>0.005848114240185639</v>
       </c>
     </row>
     <row r="78">
@@ -4930,23 +4970,33 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I78">
-        <v>0.4890992277720352</v>
+        <v>0.9910000041127205</v>
       </c>
       <c r="J78">
-        <v>0.005</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="K78">
-        <v>0.9850318773155593</v>
+        <v>0.2823845023479761</v>
       </c>
       <c r="L78">
-        <v>0.3559947851131501</v>
+        <v>0.9984238931680848</v>
       </c>
       <c r="M78">
-        <v>28.66666666666667</v>
+        <v>28.42420219434533</v>
       </c>
       <c r="N78">
-        <v>32.52933342884224</v>
+        <v>0.0003260505393088747</v>
       </c>
     </row>
     <row r="79">
@@ -4970,23 +5020,33 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I79">
-        <v>0.06719699502969378</v>
+        <v>0.6857999935746193</v>
       </c>
       <c r="J79">
-        <v>0.005</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="K79">
-        <v>1.01130200120117</v>
+        <v>0.07812495347333172</v>
       </c>
       <c r="L79">
-        <v>1.345965162365033</v>
+        <v>0.9491724554995957</v>
       </c>
       <c r="M79">
-        <v>54.16666666666666</v>
+        <v>61.3527836435534</v>
       </c>
       <c r="N79">
-        <v>57.33489289315052</v>
+        <v>0.007800245759127164</v>
       </c>
     </row>
     <row r="80">
@@ -5010,23 +5070,33 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I80">
-        <v>0.4690831236344674</v>
+        <v>1.039449974894524</v>
       </c>
       <c r="J80">
-        <v>0.005</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="K80">
-        <v>0.9934009473497846</v>
+        <v>0.4382000693558478</v>
       </c>
       <c r="L80">
-        <v>0.8788381710775425</v>
+        <v>0.9980394073151226</v>
       </c>
       <c r="M80">
-        <v>17.83333333333333</v>
+        <v>17.64935476681163</v>
       </c>
       <c r="N80">
-        <v>18.07664741930551</v>
+        <v>0.000436663092014152</v>
       </c>
     </row>
     <row r="81">
@@ -5050,23 +5120,33 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I81">
-        <v>0.1693955921622458</v>
+        <v>0.5847000107169151</v>
       </c>
       <c r="J81">
-        <v>0.005</v>
+        <v>51.33333333333334</v>
       </c>
       <c r="K81">
-        <v>0.6081511246038765</v>
+        <v>0.1003936874915215</v>
       </c>
       <c r="L81">
-        <v>0.4670574166728998</v>
+        <v>0.675914672026794</v>
       </c>
       <c r="M81">
-        <v>51.33333333333334</v>
+        <v>53.28856993448908</v>
       </c>
       <c r="N81">
-        <v>59.06881778058284</v>
+        <v>0.003194699778578689</v>
       </c>
     </row>
     <row r="82">
@@ -5090,23 +5170,33 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>DHFR3_C_term</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>DHFR12_N_term</t>
+        </is>
+      </c>
       <c r="I82">
-        <v>0.4679836591089504</v>
+        <v>1.008300043642521</v>
       </c>
       <c r="J82">
-        <v>0.005</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="K82">
-        <v>0.9710583876511009</v>
+        <v>0.3942973679047474</v>
       </c>
       <c r="L82">
-        <v>0.698366968873643</v>
+        <v>0.9791549441725165</v>
       </c>
       <c r="M82">
-        <v>21.33333333333333</v>
+        <v>21.06843561669953</v>
       </c>
       <c r="N82">
-        <v>22.29126587917254</v>
+        <v>0.000241524223119308</v>
       </c>
     </row>
   </sheetData>

--- a/output/growth_curve_logistic.xlsx
+++ b/output/growth_curve_logistic.xlsx
@@ -477,16 +477,16 @@
         <v>42.5</v>
       </c>
       <c r="K2">
-        <v>0.08429668915680358</v>
+        <v>0.08429668915680349</v>
       </c>
       <c r="L2">
-        <v>0.242362704698626</v>
+        <v>0.2423627046986263</v>
       </c>
       <c r="M2">
-        <v>43.30270092583289</v>
+        <v>43.30270092583292</v>
       </c>
       <c r="N2">
-        <v>0.006138061110799518</v>
+        <v>0.006138061110799532</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>41.5</v>
       </c>
       <c r="K3">
-        <v>0.08779525094658765</v>
+        <v>0.08779525094658752</v>
       </c>
       <c r="L3">
-        <v>0.2509868189852313</v>
+        <v>0.2509868189852315</v>
       </c>
       <c r="M3">
-        <v>42.37824063826528</v>
+        <v>42.3782406382653</v>
       </c>
       <c r="N3">
-        <v>0.005934967519119469</v>
+        <v>0.00593496751911949</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +597,16 @@
         <v>39.33333333333334</v>
       </c>
       <c r="K4">
-        <v>0.09474493256902256</v>
+        <v>0.09474493256902268</v>
       </c>
       <c r="L4">
         <v>0.3088770682114237</v>
       </c>
       <c r="M4">
-        <v>39.98123521499984</v>
+        <v>39.98123521499985</v>
       </c>
       <c r="N4">
-        <v>0.006838278491558576</v>
+        <v>0.00683827849155854</v>
       </c>
     </row>
     <row r="5">
@@ -657,16 +657,16 @@
         <v>43.33333333333334</v>
       </c>
       <c r="K5">
-        <v>0.08346803101327224</v>
+        <v>0.08346803101327273</v>
       </c>
       <c r="L5">
-        <v>0.3032485026494355</v>
+        <v>0.3032485026494345</v>
       </c>
       <c r="M5">
-        <v>44.09156585299334</v>
+        <v>44.09156585299323</v>
       </c>
       <c r="N5">
-        <v>0.00745893101832369</v>
+        <v>0.007458931018323575</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         <v>41.83333333333334</v>
       </c>
       <c r="K6">
-        <v>0.08203520789648881</v>
+        <v>0.08203520789648859</v>
       </c>
       <c r="L6">
-        <v>0.2525059865775354</v>
+        <v>0.2525059865775362</v>
       </c>
       <c r="M6">
-        <v>41.95155805801283</v>
+        <v>41.95155805801264</v>
       </c>
       <c r="N6">
-        <v>0.00783354805580529</v>
+        <v>0.0078335480558055</v>
       </c>
     </row>
     <row r="7">
@@ -777,16 +777,16 @@
         <v>41.83333333333334</v>
       </c>
       <c r="K7">
-        <v>0.08039687907539088</v>
+        <v>0.08039687907539055</v>
       </c>
       <c r="L7">
-        <v>0.2601818858339651</v>
+        <v>0.2601818858339658</v>
       </c>
       <c r="M7">
-        <v>42.64766218590493</v>
+        <v>42.64766218590502</v>
       </c>
       <c r="N7">
-        <v>0.008172124269005333</v>
+        <v>0.008172124269005408</v>
       </c>
     </row>
     <row r="8">
@@ -837,16 +837,16 @@
         <v>42.5</v>
       </c>
       <c r="K8">
-        <v>0.08731056186611205</v>
+        <v>0.08731056186611201</v>
       </c>
       <c r="L8">
-        <v>0.2181168402396032</v>
+        <v>0.2181168402396033</v>
       </c>
       <c r="M8">
-        <v>43.29141753791581</v>
+        <v>43.29141753791582</v>
       </c>
       <c r="N8">
-        <v>0.004867898072397451</v>
+        <v>0.004867898072397458</v>
       </c>
     </row>
     <row r="9">
@@ -897,16 +897,16 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>0.08843405758646185</v>
+        <v>0.0884340575864617</v>
       </c>
       <c r="L9">
-        <v>0.2515214576625442</v>
+        <v>0.2515214576625445</v>
       </c>
       <c r="M9">
-        <v>44.79320296552762</v>
+        <v>44.79320296552764</v>
       </c>
       <c r="N9">
-        <v>0.004699345265985037</v>
+        <v>0.004699345265985064</v>
       </c>
     </row>
     <row r="10">
@@ -957,16 +957,16 @@
         <v>41.5</v>
       </c>
       <c r="K10">
-        <v>0.07971778406378738</v>
+        <v>0.07971778406378749</v>
       </c>
       <c r="L10">
-        <v>0.2239737369015278</v>
+        <v>0.2239737369015276</v>
       </c>
       <c r="M10">
-        <v>42.61612381768663</v>
+        <v>42.61612381768658</v>
       </c>
       <c r="N10">
-        <v>0.007252519031800401</v>
+        <v>0.00725251903180039</v>
       </c>
     </row>
     <row r="11">
@@ -1017,16 +1017,16 @@
         <v>38.83333333333334</v>
       </c>
       <c r="K11">
-        <v>0.05305887668019377</v>
+        <v>0.05305887668019373</v>
       </c>
       <c r="L11">
-        <v>0.2590736442357641</v>
+        <v>0.2590736442357643</v>
       </c>
       <c r="M11">
-        <v>39.30345854382536</v>
+        <v>39.30345854382539</v>
       </c>
       <c r="N11">
-        <v>0.02863391845002404</v>
+        <v>0.02863391845002406</v>
       </c>
     </row>
     <row r="12">
@@ -1077,16 +1077,16 @@
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.0902711172338979</v>
+        <v>0.09027111723389779</v>
       </c>
       <c r="L12">
-        <v>0.2043558546832514</v>
+        <v>0.2043558546832515</v>
       </c>
       <c r="M12">
-        <v>41.64449042205901</v>
+        <v>41.64449042205902</v>
       </c>
       <c r="N12">
-        <v>0.004653107699496583</v>
+        <v>0.0046531076994966</v>
       </c>
     </row>
     <row r="13">
@@ -1137,16 +1137,16 @@
         <v>42.5</v>
       </c>
       <c r="K13">
-        <v>0.08050109382363266</v>
+        <v>0.08050109382363284</v>
       </c>
       <c r="L13">
-        <v>0.2655849792387409</v>
+        <v>0.2655849792387405</v>
       </c>
       <c r="M13">
-        <v>43.41841742861712</v>
+        <v>43.41841742861706</v>
       </c>
       <c r="N13">
-        <v>0.007821013954439762</v>
+        <v>0.007821013954439723</v>
       </c>
     </row>
     <row r="14">
@@ -1197,16 +1197,16 @@
         <v>32.33333333333334</v>
       </c>
       <c r="K14">
-        <v>0.2481112769399514</v>
+        <v>0.2481112769399511</v>
       </c>
       <c r="L14">
-        <v>0.7934091775395556</v>
+        <v>0.7934091775395559</v>
       </c>
       <c r="M14">
         <v>31.67906901421689</v>
       </c>
       <c r="N14">
-        <v>0.0003060578891126791</v>
+        <v>0.0003060578891126822</v>
       </c>
     </row>
     <row r="15">
@@ -1257,16 +1257,16 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.2858884277898578</v>
+        <v>0.285888427789858</v>
       </c>
       <c r="L15">
-        <v>0.9034478933211558</v>
+        <v>0.9034478933211556</v>
       </c>
       <c r="M15">
         <v>24.83128475459046</v>
       </c>
       <c r="N15">
-        <v>0.0007455864934999594</v>
+        <v>0.0007455864934999579</v>
       </c>
     </row>
     <row r="16">
@@ -1317,16 +1317,16 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.08179069531886057</v>
+        <v>0.08179069531886062</v>
       </c>
       <c r="L16">
-        <v>0.3163426785133406</v>
+        <v>0.3163426785133405</v>
       </c>
       <c r="M16">
-        <v>44.3122310035392</v>
+        <v>44.31223100353917</v>
       </c>
       <c r="N16">
-        <v>0.008216794975266549</v>
+        <v>0.008216794975266551</v>
       </c>
     </row>
     <row r="17">
@@ -1377,16 +1377,16 @@
         <v>34.83333333333334</v>
       </c>
       <c r="K17">
-        <v>0.2375887030036193</v>
+        <v>0.2375887030343566</v>
       </c>
       <c r="L17">
-        <v>0.774195535320528</v>
+        <v>0.7741955352960641</v>
       </c>
       <c r="M17">
-        <v>34.2202773929973</v>
+        <v>34.22027739970795</v>
       </c>
       <c r="N17">
-        <v>0.0002279061694315666</v>
+        <v>0.0002279061688214536</v>
       </c>
     </row>
     <row r="18">
@@ -1437,16 +1437,16 @@
         <v>48.66666666666666</v>
       </c>
       <c r="K18">
-        <v>0.08712040368043748</v>
+        <v>0.08712040368043775</v>
       </c>
       <c r="L18">
-        <v>0.5352295700690169</v>
+        <v>0.5352295700690157</v>
       </c>
       <c r="M18">
-        <v>51.2701805164723</v>
+        <v>51.27018051647224</v>
       </c>
       <c r="N18">
-        <v>0.006077521672810911</v>
+        <v>0.006077521672810854</v>
       </c>
     </row>
     <row r="19">
@@ -1497,16 +1497,16 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.2317724381205229</v>
+        <v>0.2317724381205292</v>
       </c>
       <c r="L19">
-        <v>0.6906268928210361</v>
+        <v>0.6906268928210347</v>
       </c>
       <c r="M19">
-        <v>37.22081947137514</v>
+        <v>37.22081947137512</v>
       </c>
       <c r="N19">
-        <v>0.0001237688481724498</v>
+        <v>0.0001237688481724215</v>
       </c>
     </row>
     <row r="20">
@@ -1557,16 +1557,16 @@
         <v>53.33333333333334</v>
       </c>
       <c r="K20">
-        <v>0.06240808427785675</v>
+        <v>0.06240808427785668</v>
       </c>
       <c r="L20">
-        <v>0.6913310137098191</v>
+        <v>0.6913310137098198</v>
       </c>
       <c r="M20">
         <v>65.910259567973</v>
       </c>
       <c r="N20">
-        <v>0.0111235536002933</v>
+        <v>0.01112355360029335</v>
       </c>
     </row>
     <row r="21">
@@ -1617,16 +1617,16 @@
         <v>23</v>
       </c>
       <c r="K21">
-        <v>0.2971022578619502</v>
+        <v>0.2969311408850917</v>
       </c>
       <c r="L21">
-        <v>0.9231485442617722</v>
+        <v>0.9234021727884252</v>
       </c>
       <c r="M21">
-        <v>22.59059280487269</v>
+        <v>22.59312390284234</v>
       </c>
       <c r="N21">
-        <v>0.001121714360513214</v>
+        <v>0.001125517783279486</v>
       </c>
     </row>
     <row r="22">
@@ -1677,16 +1677,16 @@
         <v>53</v>
       </c>
       <c r="K22">
-        <v>0.06782033957244728</v>
+        <v>0.06782033957244837</v>
       </c>
       <c r="L22">
-        <v>0.5825586476435749</v>
+        <v>0.5825586476435614</v>
       </c>
       <c r="M22">
-        <v>62.16213557750066</v>
+        <v>62.16213557749992</v>
       </c>
       <c r="N22">
-        <v>0.008473307414445328</v>
+        <v>0.008473307414444981</v>
       </c>
     </row>
     <row r="23">
@@ -1737,16 +1737,16 @@
         <v>55.33333333333334</v>
       </c>
       <c r="K23">
-        <v>0.0700033454827029</v>
+        <v>0.07000334548270241</v>
       </c>
       <c r="L23">
-        <v>0.5910150876122872</v>
+        <v>0.5910150876122935</v>
       </c>
       <c r="M23">
-        <v>63.66009562801941</v>
+        <v>63.66009562801973</v>
       </c>
       <c r="N23">
-        <v>0.006779374573515553</v>
+        <v>0.006779374573515678</v>
       </c>
     </row>
     <row r="24">
@@ -1797,16 +1797,16 @@
         <v>37.33333333333334</v>
       </c>
       <c r="K24">
-        <v>0.2019848132196354</v>
+        <v>0.2019848132196325</v>
       </c>
       <c r="L24">
-        <v>0.6460574191603983</v>
+        <v>0.6460574191603989</v>
       </c>
       <c r="M24">
-        <v>36.48627903856011</v>
+        <v>36.48627903856013</v>
       </c>
       <c r="N24">
-        <v>0.0004068072684140519</v>
+        <v>0.0004068072684140945</v>
       </c>
     </row>
     <row r="25">
@@ -1857,16 +1857,16 @@
         <v>45.66666666666666</v>
       </c>
       <c r="K25">
-        <v>0.07354214051807074</v>
+        <v>0.07354214051824755</v>
       </c>
       <c r="L25">
-        <v>0.3621467093293655</v>
+        <v>0.3621467093308782</v>
       </c>
       <c r="M25">
-        <v>48.41914179933148</v>
+        <v>48.4191417992154</v>
       </c>
       <c r="N25">
-        <v>0.01000598633096757</v>
+        <v>0.01000598633100913</v>
       </c>
     </row>
     <row r="26">
@@ -1917,16 +1917,16 @@
         <v>48.66666666666666</v>
       </c>
       <c r="K26">
-        <v>0.07325995082989363</v>
+        <v>0.07325995082989378</v>
       </c>
       <c r="L26">
-        <v>0.4320772516457281</v>
+        <v>0.4320772516457273</v>
       </c>
       <c r="M26">
-        <v>51.87715766115859</v>
+        <v>51.87715766115853</v>
       </c>
       <c r="N26">
-        <v>0.009449610196979031</v>
+        <v>0.009449610196978981</v>
       </c>
     </row>
     <row r="27">
@@ -1977,13 +1977,13 @@
         <v>54.16666666666666</v>
       </c>
       <c r="K27">
-        <v>0.07512738559073338</v>
+        <v>0.0751273855907334</v>
       </c>
       <c r="L27">
         <v>0.5843148047751636</v>
       </c>
       <c r="M27">
-        <v>60.29755367068949</v>
+        <v>60.29755367068947</v>
       </c>
       <c r="N27">
         <v>0.006232137159341307</v>
@@ -2037,16 +2037,16 @@
         <v>50.66666666666666</v>
       </c>
       <c r="K28">
-        <v>0.09299777209093694</v>
+        <v>0.09299777209093746</v>
       </c>
       <c r="L28">
-        <v>0.7536605066062312</v>
+        <v>0.7536605066062285</v>
       </c>
       <c r="M28">
-        <v>53.97506586868168</v>
+        <v>53.97506586868158</v>
       </c>
       <c r="N28">
-        <v>0.004947069799846464</v>
+        <v>0.00494706979984636</v>
       </c>
     </row>
     <row r="29">
@@ -2097,16 +2097,16 @@
         <v>45.83333333333334</v>
       </c>
       <c r="K29">
-        <v>0.06334467844101821</v>
+        <v>0.06334467844101786</v>
       </c>
       <c r="L29">
-        <v>0.4511975962526279</v>
+        <v>0.4511975962526356</v>
       </c>
       <c r="M29">
-        <v>50.35367888157822</v>
+        <v>50.35367888157692</v>
       </c>
       <c r="N29">
-        <v>0.01784826964001715</v>
+        <v>0.01784826964001916</v>
       </c>
     </row>
     <row r="30">
@@ -2157,16 +2157,16 @@
         <v>52.5</v>
       </c>
       <c r="K30">
-        <v>0.07133368306003775</v>
+        <v>0.07133368306003698</v>
       </c>
       <c r="L30">
-        <v>0.5773297873564363</v>
+        <v>0.5773297873564437</v>
       </c>
       <c r="M30">
-        <v>57.85723146031824</v>
+        <v>57.85723146031857</v>
       </c>
       <c r="N30">
-        <v>0.009163648995768908</v>
+        <v>0.00916364899576921</v>
       </c>
     </row>
     <row r="31">
@@ -2217,16 +2217,16 @@
         <v>43.5</v>
       </c>
       <c r="K31">
-        <v>0.08092256330464796</v>
+        <v>0.0809225633046486</v>
       </c>
       <c r="L31">
-        <v>0.3260584358180293</v>
+        <v>0.3260584358180277</v>
       </c>
       <c r="M31">
-        <v>45.85598261064151</v>
+        <v>45.85598261064134</v>
       </c>
       <c r="N31">
-        <v>0.007784456022907421</v>
+        <v>0.007784456022907265</v>
       </c>
     </row>
     <row r="32">
@@ -2277,16 +2277,16 @@
         <v>48.66666666666666</v>
       </c>
       <c r="K32">
-        <v>0.05722163452291509</v>
+        <v>0.05722163452291523</v>
       </c>
       <c r="L32">
-        <v>0.4756117644515225</v>
+        <v>0.4756117644515208</v>
       </c>
       <c r="M32">
-        <v>56.10892361833994</v>
+        <v>56.10892361833979</v>
       </c>
       <c r="N32">
-        <v>0.018438097017935</v>
+        <v>0.01843809701793495</v>
       </c>
     </row>
     <row r="33">
@@ -2337,16 +2337,16 @@
         <v>52.83333333333334</v>
       </c>
       <c r="K33">
-        <v>0.05788075844364875</v>
+        <v>0.05788075844364864</v>
       </c>
       <c r="L33">
-        <v>0.7939209600175817</v>
+        <v>0.7939209600175833</v>
       </c>
       <c r="M33">
-        <v>65.79077143007579</v>
+        <v>65.79077143007588</v>
       </c>
       <c r="N33">
-        <v>0.01723625027425677</v>
+        <v>0.01723625027425684</v>
       </c>
     </row>
     <row r="34">
@@ -2397,16 +2397,16 @@
         <v>41.83333333333334</v>
       </c>
       <c r="K34">
-        <v>0.08821557604153228</v>
+        <v>0.08821557604153231</v>
       </c>
       <c r="L34">
-        <v>0.35313612456388</v>
+        <v>0.3531361245638799</v>
       </c>
       <c r="M34">
         <v>43.10070437751872</v>
       </c>
       <c r="N34">
-        <v>0.0077108081047239</v>
+        <v>0.007710808104723887</v>
       </c>
     </row>
     <row r="35">
@@ -2457,16 +2457,16 @@
         <v>45.83333333333334</v>
       </c>
       <c r="K35">
-        <v>0.08769658298474499</v>
+        <v>0.0876965829831574</v>
       </c>
       <c r="L35">
-        <v>0.3785225984463687</v>
+        <v>0.3785225984542673</v>
       </c>
       <c r="M35">
-        <v>47.18094632050251</v>
+        <v>47.18094632119164</v>
       </c>
       <c r="N35">
-        <v>0.00594667982460639</v>
+        <v>0.005946679824815172</v>
       </c>
     </row>
     <row r="36">
@@ -2517,16 +2517,16 @@
         <v>47.5</v>
       </c>
       <c r="K36">
-        <v>0.07227351896832054</v>
+        <v>0.07227351896830683</v>
       </c>
       <c r="L36">
-        <v>0.4188794006335598</v>
+        <v>0.4188794006330317</v>
       </c>
       <c r="M36">
-        <v>50.82705172727656</v>
+        <v>50.82705172737512</v>
       </c>
       <c r="N36">
-        <v>0.01037149704438443</v>
+        <v>0.01037149704430636</v>
       </c>
     </row>
     <row r="37">
@@ -2577,13 +2577,13 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.07020507308270675</v>
+        <v>0.07020507308270676</v>
       </c>
       <c r="L37">
-        <v>0.7527369463809729</v>
+        <v>0.7527369463809723</v>
       </c>
       <c r="M37">
-        <v>61.13683555118497</v>
+        <v>61.13683555118495</v>
       </c>
       <c r="N37">
         <v>0.01015551120258828</v>
@@ -2637,16 +2637,16 @@
         <v>48.33333333333334</v>
       </c>
       <c r="K38">
-        <v>0.1124534840327144</v>
+        <v>0.1124534840327772</v>
       </c>
       <c r="L38">
-        <v>0.235341799148242</v>
+        <v>0.2353417991482164</v>
       </c>
       <c r="M38">
-        <v>47.76879743233105</v>
+        <v>47.76879743243102</v>
       </c>
       <c r="N38">
-        <v>0.001088320922029401</v>
+        <v>0.001088320922013854</v>
       </c>
     </row>
     <row r="39">
@@ -2697,16 +2697,16 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>0.08251211140737974</v>
+        <v>0.08251211140734556</v>
       </c>
       <c r="L39">
-        <v>0.3195544914671925</v>
+        <v>0.3195544914671087</v>
       </c>
       <c r="M39">
-        <v>46.50869647013018</v>
+        <v>46.50869647012112</v>
       </c>
       <c r="N39">
-        <v>0.006740129756592352</v>
+        <v>0.006740129756606009</v>
       </c>
     </row>
     <row r="40">
@@ -2757,16 +2757,16 @@
         <v>51.16666666666666</v>
       </c>
       <c r="K40">
-        <v>0.07400886446262685</v>
+        <v>0.07400886446262679</v>
       </c>
       <c r="L40">
-        <v>0.4921627158035994</v>
+        <v>0.4921627158036</v>
       </c>
       <c r="M40">
-        <v>55.55735979006514</v>
+        <v>55.55735979006518</v>
       </c>
       <c r="N40">
-        <v>0.007931369116018142</v>
+        <v>0.007931369116018152</v>
       </c>
     </row>
     <row r="41">
@@ -2817,16 +2817,16 @@
         <v>47.5</v>
       </c>
       <c r="K41">
-        <v>0.06993858042126297</v>
+        <v>0.06993858042126329</v>
       </c>
       <c r="L41">
-        <v>0.4951868050407144</v>
+        <v>0.4951868050407126</v>
       </c>
       <c r="M41">
-        <v>50.77390347951835</v>
+        <v>50.77390347951822</v>
       </c>
       <c r="N41">
-        <v>0.01381272070972266</v>
+        <v>0.01381272070972251</v>
       </c>
     </row>
     <row r="42">
@@ -2877,16 +2877,16 @@
         <v>51.5</v>
       </c>
       <c r="K42">
-        <v>0.07855955876777286</v>
+        <v>0.0785595587677731</v>
       </c>
       <c r="L42">
-        <v>0.7043842736506498</v>
+        <v>0.7043842736506474</v>
       </c>
       <c r="M42">
-        <v>56.6454532980471</v>
+        <v>56.64545329804698</v>
       </c>
       <c r="N42">
-        <v>0.008130901614269286</v>
+        <v>0.00813090161426923</v>
       </c>
     </row>
     <row r="43">
@@ -2937,16 +2937,16 @@
         <v>43.66666666666666</v>
       </c>
       <c r="K43">
-        <v>0.08670750405361367</v>
+        <v>0.0867075040536137</v>
       </c>
       <c r="L43">
-        <v>0.2880767315415773</v>
+        <v>0.2880767315415772</v>
       </c>
       <c r="M43">
-        <v>45.19746299982947</v>
+        <v>45.19746299982946</v>
       </c>
       <c r="N43">
-        <v>0.00561027973868036</v>
+        <v>0.005610279738680353</v>
       </c>
     </row>
     <row r="44">
@@ -2997,16 +2997,16 @@
         <v>47</v>
       </c>
       <c r="K44">
-        <v>0.1031860629463451</v>
+        <v>0.1031860629463449</v>
       </c>
       <c r="L44">
-        <v>0.6388236666816081</v>
+        <v>0.6388236666816089</v>
       </c>
       <c r="M44">
-        <v>48.11773937912791</v>
+        <v>48.11773937912796</v>
       </c>
       <c r="N44">
-        <v>0.004426438088234443</v>
+        <v>0.004426438088234464</v>
       </c>
     </row>
     <row r="45">
@@ -3057,16 +3057,16 @@
         <v>41.83333333333334</v>
       </c>
       <c r="K45">
-        <v>0.07690880172916362</v>
+        <v>0.07690880172916321</v>
       </c>
       <c r="L45">
-        <v>0.3098397097200221</v>
+        <v>0.3098397097200229</v>
       </c>
       <c r="M45">
-        <v>42.48439110737919</v>
+        <v>42.48439110737929</v>
       </c>
       <c r="N45">
-        <v>0.01137291962957743</v>
+        <v>0.01137291962957756</v>
       </c>
     </row>
     <row r="46">
@@ -3117,16 +3117,16 @@
         <v>43</v>
       </c>
       <c r="K46">
-        <v>0.08615021061861701</v>
+        <v>0.08615021061861718</v>
       </c>
       <c r="L46">
-        <v>0.3693233657744123</v>
+        <v>0.369323365774412</v>
       </c>
       <c r="M46">
-        <v>44.27220643271935</v>
+        <v>44.27220643271932</v>
       </c>
       <c r="N46">
-        <v>0.007970872882369221</v>
+        <v>0.00797087288236918</v>
       </c>
     </row>
     <row r="47">
@@ -3180,13 +3180,13 @@
         <v>0.09059126624843304</v>
       </c>
       <c r="L47">
-        <v>0.3225681843761635</v>
+        <v>0.3225681843761637</v>
       </c>
       <c r="M47">
-        <v>46.115300815665</v>
+        <v>46.11530081566502</v>
       </c>
       <c r="N47">
-        <v>0.004871748120030322</v>
+        <v>0.004871748120030316</v>
       </c>
     </row>
     <row r="48">
@@ -3237,16 +3237,16 @@
         <v>43</v>
       </c>
       <c r="K48">
-        <v>0.09125165703744412</v>
+        <v>0.09125165703744451</v>
       </c>
       <c r="L48">
-        <v>0.2846164448882847</v>
+        <v>0.2846164448882842</v>
       </c>
       <c r="M48">
-        <v>43.69812397259178</v>
+        <v>43.69812397259172</v>
       </c>
       <c r="N48">
-        <v>0.005182256509293975</v>
+        <v>0.00518225650929391</v>
       </c>
     </row>
     <row r="49">
@@ -3297,16 +3297,16 @@
         <v>45.33333333333334</v>
       </c>
       <c r="K49">
-        <v>0.08487629984179854</v>
+        <v>0.08487629984180302</v>
       </c>
       <c r="L49">
-        <v>0.3197818410316878</v>
+        <v>0.3197818410317372</v>
       </c>
       <c r="M49">
-        <v>46.5234117240949</v>
+        <v>46.52341172409417</v>
       </c>
       <c r="N49">
-        <v>0.006048488381926434</v>
+        <v>0.006048488381926501</v>
       </c>
     </row>
     <row r="50">
@@ -3357,16 +3357,16 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>0.1474621134938692</v>
+        <v>0.1474621134940102</v>
       </c>
       <c r="L50">
-        <v>0.730239190479519</v>
+        <v>0.7302391904792174</v>
       </c>
       <c r="M50">
-        <v>42.51989801034486</v>
+        <v>42.51989801052641</v>
       </c>
       <c r="N50">
-        <v>0.001379067866308316</v>
+        <v>0.001379067866262644</v>
       </c>
     </row>
     <row r="51">
@@ -3417,16 +3417,16 @@
         <v>52.16666666666666</v>
       </c>
       <c r="K51">
-        <v>0.08059627854476242</v>
+        <v>0.08059627854476221</v>
       </c>
       <c r="L51">
-        <v>0.6871967857637179</v>
+        <v>0.68719678576372</v>
       </c>
       <c r="M51">
-        <v>57.25117424837938</v>
+        <v>57.25117424837946</v>
       </c>
       <c r="N51">
-        <v>0.006743156180444367</v>
+        <v>0.006743156180444423</v>
       </c>
     </row>
     <row r="52">
@@ -3477,16 +3477,16 @@
         <v>49.83333333333334</v>
       </c>
       <c r="K52">
-        <v>0.09525596738822632</v>
+        <v>0.09525596738842526</v>
       </c>
       <c r="L52">
-        <v>0.704688138329697</v>
+        <v>0.704688138331157</v>
       </c>
       <c r="M52">
-        <v>52.37979539410205</v>
+        <v>52.37979539405246</v>
       </c>
       <c r="N52">
-        <v>0.004765875207048248</v>
+        <v>0.00476587520703115</v>
       </c>
     </row>
     <row r="53">
@@ -3537,16 +3537,16 @@
         <v>49.33333333333334</v>
       </c>
       <c r="K53">
-        <v>0.07790513997739287</v>
+        <v>0.07790513997739319</v>
       </c>
       <c r="L53">
-        <v>0.7490903816367505</v>
+        <v>0.7490903816367478</v>
       </c>
       <c r="M53">
-        <v>53.66304913821249</v>
+        <v>53.66304913821237</v>
       </c>
       <c r="N53">
-        <v>0.01128031392515549</v>
+        <v>0.01128031392515536</v>
       </c>
     </row>
     <row r="54">
@@ -3597,16 +3597,16 @@
         <v>48.66666666666666</v>
       </c>
       <c r="K54">
-        <v>0.09181675527173727</v>
+        <v>0.09181675527173701</v>
       </c>
       <c r="L54">
-        <v>0.6853283960726746</v>
+        <v>0.6853283960726764</v>
       </c>
       <c r="M54">
-        <v>51.04447094885394</v>
+        <v>51.04447094885401</v>
       </c>
       <c r="N54">
-        <v>0.006258784183801055</v>
+        <v>0.006258784183801121</v>
       </c>
     </row>
     <row r="55">
@@ -3657,16 +3657,16 @@
         <v>42.16666666666666</v>
       </c>
       <c r="K55">
-        <v>0.1607485067628673</v>
+        <v>0.160654814745032</v>
       </c>
       <c r="L55">
-        <v>0.7715287849483854</v>
+        <v>0.7717785826200187</v>
       </c>
       <c r="M55">
-        <v>41.76152710370972</v>
+        <v>41.76702218262002</v>
       </c>
       <c r="N55">
-        <v>0.0009361839523490312</v>
+        <v>0.0009393253769808831</v>
       </c>
     </row>
     <row r="56">
@@ -3717,16 +3717,16 @@
         <v>45</v>
       </c>
       <c r="K56">
-        <v>0.1075856812242889</v>
+        <v>0.1075856812242949</v>
       </c>
       <c r="L56">
-        <v>0.7775083726445594</v>
+        <v>0.7775083726445942</v>
       </c>
       <c r="M56">
-        <v>45.1149142795058</v>
+        <v>45.11491427950327</v>
       </c>
       <c r="N56">
-        <v>0.006017106912294802</v>
+        <v>0.006017106912295077</v>
       </c>
     </row>
     <row r="57">
@@ -3777,16 +3777,16 @@
         <v>47.33333333333334</v>
       </c>
       <c r="K57">
-        <v>0.07553539052390972</v>
+        <v>0.07553539052390781</v>
       </c>
       <c r="L57">
-        <v>0.556830977950733</v>
+        <v>0.5568309779507948</v>
       </c>
       <c r="M57">
-        <v>50.07624373732541</v>
+        <v>50.07624373731411</v>
       </c>
       <c r="N57">
-        <v>0.01239413428769552</v>
+        <v>0.01239413428770839</v>
       </c>
     </row>
     <row r="58">
@@ -3837,16 +3837,16 @@
         <v>38</v>
       </c>
       <c r="K58">
-        <v>0.1922214036372651</v>
+        <v>0.1922214036372643</v>
       </c>
       <c r="L58">
-        <v>0.8250132212134117</v>
+        <v>0.825013221213412</v>
       </c>
       <c r="M58">
-        <v>37.39626802752379</v>
+        <v>37.39626802752378</v>
       </c>
       <c r="N58">
-        <v>0.000622682352069553</v>
+        <v>0.0006226823520695721</v>
       </c>
     </row>
     <row r="59">
@@ -3897,16 +3897,16 @@
         <v>42.16666666666666</v>
       </c>
       <c r="K59">
-        <v>0.1609358707394974</v>
+        <v>0.1609358707394973</v>
       </c>
       <c r="L59">
-        <v>0.8143748217131941</v>
+        <v>0.8143748217131944</v>
       </c>
       <c r="M59">
-        <v>41.54290318422429</v>
+        <v>41.5429031842243</v>
       </c>
       <c r="N59">
-        <v>0.001015549275706571</v>
+        <v>0.001015549275706577</v>
       </c>
     </row>
     <row r="60">
@@ -3957,16 +3957,16 @@
         <v>40.16666666666666</v>
       </c>
       <c r="K60">
-        <v>0.1765396349403381</v>
+        <v>0.1765396349403383</v>
       </c>
       <c r="L60">
-        <v>0.7867158859646144</v>
+        <v>0.7867158859646142</v>
       </c>
       <c r="M60">
         <v>39.5367450584174</v>
       </c>
       <c r="N60">
-        <v>0.0007313483312954422</v>
+        <v>0.0007313483312954361</v>
       </c>
     </row>
     <row r="61">
@@ -4017,16 +4017,16 @@
         <v>53</v>
       </c>
       <c r="K61">
-        <v>0.07447360880061651</v>
+        <v>0.07447360880061646</v>
       </c>
       <c r="L61">
-        <v>0.8547849284047779</v>
+        <v>0.8547849284047768</v>
       </c>
       <c r="M61">
-        <v>60.89320239250245</v>
+        <v>60.89320239250243</v>
       </c>
       <c r="N61">
-        <v>0.009072455020126451</v>
+        <v>0.009072455020126487</v>
       </c>
     </row>
     <row r="62">
@@ -4077,16 +4077,16 @@
         <v>52.5</v>
       </c>
       <c r="K62">
-        <v>0.0765069353885308</v>
+        <v>0.07650693538852379</v>
       </c>
       <c r="L62">
-        <v>0.5728361646910075</v>
+        <v>0.5728361646910178</v>
       </c>
       <c r="M62">
-        <v>57.15529703147422</v>
+        <v>57.15529703146986</v>
       </c>
       <c r="N62">
-        <v>0.007136952698139444</v>
+        <v>0.007136952698144744</v>
       </c>
     </row>
     <row r="63">
@@ -4137,16 +4137,16 @@
         <v>48.66666666666666</v>
       </c>
       <c r="K63">
-        <v>0.0827617158978957</v>
+        <v>0.08276171589789524</v>
       </c>
       <c r="L63">
-        <v>0.7040485780581194</v>
+        <v>0.7040485780581212</v>
       </c>
       <c r="M63">
-        <v>52.77791907300395</v>
+        <v>52.77791907300401</v>
       </c>
       <c r="N63">
-        <v>0.008813275890133985</v>
+        <v>0.008813275890134177</v>
       </c>
     </row>
     <row r="64">
@@ -4197,16 +4197,16 @@
         <v>44</v>
       </c>
       <c r="K64">
-        <v>0.09528876526948751</v>
+        <v>0.09528876526948847</v>
       </c>
       <c r="L64">
-        <v>0.351289927897744</v>
+        <v>0.3512899278978048</v>
       </c>
       <c r="M64">
-        <v>44.89962401787334</v>
+        <v>44.89962401785766</v>
       </c>
       <c r="N64">
-        <v>0.004803827375906949</v>
+        <v>0.004803827375914653</v>
       </c>
     </row>
     <row r="65">
@@ -4257,16 +4257,16 @@
         <v>38.83333333333334</v>
       </c>
       <c r="K65">
-        <v>0.1858998996806812</v>
+        <v>0.1858998996806815</v>
       </c>
       <c r="L65">
-        <v>0.767759440721224</v>
+        <v>0.7677594407212238</v>
       </c>
       <c r="M65">
-        <v>38.12710253074363</v>
+        <v>38.12710253074362</v>
       </c>
       <c r="N65">
-        <v>0.0006407070521218921</v>
+        <v>0.0006407070521218885</v>
       </c>
     </row>
     <row r="66">
@@ -4317,16 +4317,16 @@
         <v>44</v>
       </c>
       <c r="K66">
-        <v>0.09659108427494138</v>
+        <v>0.09659108427494112</v>
       </c>
       <c r="L66">
-        <v>0.4044482665303908</v>
+        <v>0.4044482665303915</v>
       </c>
       <c r="M66">
-        <v>45.18413383416323</v>
+        <v>45.18413383416328</v>
       </c>
       <c r="N66">
-        <v>0.005080944256232392</v>
+        <v>0.005080944256232436</v>
       </c>
     </row>
     <row r="67">
@@ -4386,7 +4386,7 @@
         <v>36.59761293567678</v>
       </c>
       <c r="N67">
-        <v>0.0007916613409226245</v>
+        <v>0.0007916613409226232</v>
       </c>
     </row>
     <row r="68">
@@ -4437,16 +4437,16 @@
         <v>42.5</v>
       </c>
       <c r="K68">
-        <v>0.09258586564750917</v>
+        <v>0.0925858656475092</v>
       </c>
       <c r="L68">
-        <v>0.394230083618842</v>
+        <v>0.3942300836188419</v>
       </c>
       <c r="M68">
-        <v>43.4026167949757</v>
+        <v>43.40261679497569</v>
       </c>
       <c r="N68">
-        <v>0.006963241663672</v>
+        <v>0.006963241663671998</v>
       </c>
     </row>
     <row r="69">
@@ -4497,16 +4497,16 @@
         <v>51.16666666666666</v>
       </c>
       <c r="K69">
-        <v>0.07340919248880101</v>
+        <v>0.07340919248881944</v>
       </c>
       <c r="L69">
-        <v>0.8280233852292465</v>
+        <v>0.8280233852294129</v>
       </c>
       <c r="M69">
-        <v>57.12151405341646</v>
+        <v>57.1215140533976</v>
       </c>
       <c r="N69">
-        <v>0.01231493531412997</v>
+        <v>0.01231493531413647</v>
       </c>
     </row>
     <row r="70">
@@ -4557,16 +4557,16 @@
         <v>53.33333333333334</v>
       </c>
       <c r="K70">
-        <v>0.06445960825911357</v>
+        <v>0.06445960825911326</v>
       </c>
       <c r="L70">
-        <v>0.7310415664167624</v>
+        <v>0.7310415664167672</v>
       </c>
       <c r="M70">
-        <v>64.85547696629249</v>
+        <v>64.85547696629268</v>
       </c>
       <c r="N70">
-        <v>0.01100926764975832</v>
+        <v>0.01100926764975846</v>
       </c>
     </row>
     <row r="71">
@@ -4617,16 +4617,16 @@
         <v>50</v>
       </c>
       <c r="K71">
-        <v>0.07855349591120797</v>
+        <v>0.07855349591120815</v>
       </c>
       <c r="L71">
-        <v>0.5004320942798964</v>
+        <v>0.5004320942798953</v>
       </c>
       <c r="M71">
-        <v>52.89986873971847</v>
+        <v>52.89986873971841</v>
       </c>
       <c r="N71">
-        <v>0.007724873918149534</v>
+        <v>0.007724873918149476</v>
       </c>
     </row>
     <row r="72">
@@ -4677,16 +4677,16 @@
         <v>48.66666666666666</v>
       </c>
       <c r="K72">
-        <v>0.08879147724114497</v>
+        <v>0.08879147724117392</v>
       </c>
       <c r="L72">
-        <v>0.4103596028652274</v>
+        <v>0.4103596028652422</v>
       </c>
       <c r="M72">
-        <v>50.1934547120967</v>
+        <v>50.19345471212758</v>
       </c>
       <c r="N72">
-        <v>0.004705582817018176</v>
+        <v>0.004705582816998828</v>
       </c>
     </row>
     <row r="73">
@@ -4737,16 +4737,16 @@
         <v>45.66666666666666</v>
       </c>
       <c r="K73">
-        <v>0.09278795463963332</v>
+        <v>0.09278795463027256</v>
       </c>
       <c r="L73">
-        <v>0.3604711956625647</v>
+        <v>0.3604711955804242</v>
       </c>
       <c r="M73">
-        <v>46.67129605608454</v>
+        <v>46.6712960681749</v>
       </c>
       <c r="N73">
-        <v>0.004682364801121222</v>
+        <v>0.004682364796888673</v>
       </c>
     </row>
     <row r="74">
@@ -4787,16 +4787,16 @@
         <v>56.66666666666666</v>
       </c>
       <c r="K74">
-        <v>0.06981945336184094</v>
+        <v>0.06981945336183826</v>
       </c>
       <c r="L74">
-        <v>0.8878690106673774</v>
+        <v>0.8878690106674411</v>
       </c>
       <c r="M74">
-        <v>66.71409396238556</v>
+        <v>66.71409396238765</v>
       </c>
       <c r="N74">
-        <v>0.008343154567824161</v>
+        <v>0.00834315456782503</v>
       </c>
     </row>
     <row r="75">
@@ -4837,16 +4837,16 @@
         <v>20.16666666666667</v>
       </c>
       <c r="K75">
-        <v>0.4846013254728388</v>
+        <v>0.484601325472874</v>
       </c>
       <c r="L75">
-        <v>0.7004136272528416</v>
+        <v>0.7004136272528391</v>
       </c>
       <c r="M75">
-        <v>18.84892332593284</v>
+        <v>18.84892332593286</v>
       </c>
       <c r="N75">
-        <v>7.557346306857025E-05</v>
+        <v>7.557346306851936E-05</v>
       </c>
     </row>
     <row r="76">
@@ -4887,16 +4887,16 @@
         <v>28</v>
       </c>
       <c r="K76">
-        <v>0.2940770591705903</v>
+        <v>0.2939987286484542</v>
       </c>
       <c r="L76">
-        <v>1.020140315432164</v>
+        <v>1.020277092943981</v>
       </c>
       <c r="M76">
-        <v>27.64751129373342</v>
+        <v>27.64879631661181</v>
       </c>
       <c r="N76">
-        <v>0.0003002626366992842</v>
+        <v>0.0003008401130403517</v>
       </c>
     </row>
     <row r="77">
@@ -4937,16 +4937,16 @@
         <v>45.66666666666666</v>
       </c>
       <c r="K77">
-        <v>0.09355630696265795</v>
+        <v>0.09355630696265806</v>
       </c>
       <c r="L77">
-        <v>0.4561995719779558</v>
+        <v>0.4561995719779554</v>
       </c>
       <c r="M77">
-        <v>46.43095884156565</v>
+        <v>46.43095884156561</v>
       </c>
       <c r="N77">
-        <v>0.005848114240185639</v>
+        <v>0.005848114240185624</v>
       </c>
     </row>
     <row r="78">
@@ -4987,7 +4987,7 @@
         <v>28.66666666666667</v>
       </c>
       <c r="K78">
-        <v>0.2823845023479761</v>
+        <v>0.2823845023479756</v>
       </c>
       <c r="L78">
         <v>0.9984238931680848</v>
@@ -4996,7 +4996,7 @@
         <v>28.42420219434533</v>
       </c>
       <c r="N78">
-        <v>0.0003260505393088747</v>
+        <v>0.0003260505393088793</v>
       </c>
     </row>
     <row r="79">
@@ -5037,16 +5037,16 @@
         <v>54.16666666666666</v>
       </c>
       <c r="K79">
-        <v>0.07812495347333172</v>
+        <v>0.0781249534732959</v>
       </c>
       <c r="L79">
-        <v>0.9491724554995957</v>
+        <v>0.9491724555003687</v>
       </c>
       <c r="M79">
-        <v>61.3527836435534</v>
+        <v>61.35278364357524</v>
       </c>
       <c r="N79">
-        <v>0.007800245759127164</v>
+        <v>0.007800245759137322</v>
       </c>
     </row>
     <row r="80">
@@ -5087,16 +5087,16 @@
         <v>17.83333333333333</v>
       </c>
       <c r="K80">
-        <v>0.4382000693558478</v>
+        <v>0.4381818354345882</v>
       </c>
       <c r="L80">
-        <v>0.9980394073151226</v>
+        <v>0.9980599154726062</v>
       </c>
       <c r="M80">
-        <v>17.64935476681163</v>
+        <v>17.64949109122161</v>
       </c>
       <c r="N80">
-        <v>0.000436663092014152</v>
+        <v>0.0004367864735848118</v>
       </c>
     </row>
     <row r="81">
@@ -5137,16 +5137,16 @@
         <v>51.33333333333334</v>
       </c>
       <c r="K81">
-        <v>0.1003936874915215</v>
+        <v>0.1003936874915212</v>
       </c>
       <c r="L81">
-        <v>0.675914672026794</v>
+        <v>0.6759146720267957</v>
       </c>
       <c r="M81">
-        <v>53.28856993448908</v>
+        <v>53.28856993448914</v>
       </c>
       <c r="N81">
-        <v>0.003194699778578689</v>
+        <v>0.00319469977857874</v>
       </c>
     </row>
     <row r="82">
@@ -5187,16 +5187,16 @@
         <v>21.33333333333333</v>
       </c>
       <c r="K82">
-        <v>0.3942973679047474</v>
+        <v>0.394297367904749</v>
       </c>
       <c r="L82">
-        <v>0.9791549441725165</v>
+        <v>0.9791549441725161</v>
       </c>
       <c r="M82">
         <v>21.06843561669953</v>
       </c>
       <c r="N82">
-        <v>0.000241524223119308</v>
+        <v>0.0002415242231193002</v>
       </c>
     </row>
   </sheetData>
